--- a/lab_2/LFF.xlsx
+++ b/lab_2/LFF.xlsx
@@ -8,24 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugniu\code\ADS\lab_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2525B5-1461-4525-A23E-C2971BE00648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BDB344-7B44-4BD2-9325-EE2C8F8324A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LFF" sheetId="1" r:id="rId1"/>
+    <sheet name="KPS" sheetId="4" r:id="rId2"/>
+    <sheet name="DFF" sheetId="2" r:id="rId3"/>
+    <sheet name="DTS" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>Data</t>
   </si>
@@ -91,13 +105,318 @@
   </si>
   <si>
     <t>Įkeltas archyvas į www</t>
+  </si>
+  <si>
+    <t>Grupė:</t>
+  </si>
+  <si>
+    <t>Studentas:</t>
+  </si>
+  <si>
+    <t>Data:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Radimo data</t>
+  </si>
+  <si>
+    <t>Defekto numeris</t>
+  </si>
+  <si>
+    <t>Defekto tipas</t>
+  </si>
+  <si>
+    <t>Padarytas fazėje</t>
+  </si>
+  <si>
+    <t>Pašalintas fazėje</t>
+  </si>
+  <si>
+    <t>Taisymo laikas</t>
+  </si>
+  <si>
+    <t>Taisant defektą</t>
+  </si>
+  <si>
+    <t>Detalus defekto aprašas</t>
+  </si>
+  <si>
+    <t>Fazės/žingsniai:</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Projektavimas</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Kodavimas</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Kompiliavimas</t>
+  </si>
+  <si>
+    <t>Compile</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>"Aptarimas"</t>
+  </si>
+  <si>
+    <t>Postmortem</t>
+  </si>
+  <si>
+    <t>Defektų tipų standartas</t>
+  </si>
+  <si>
+    <t>Tipo numeris</t>
+  </si>
+  <si>
+    <t>Tipo pavadinimas</t>
+  </si>
+  <si>
+    <t>Aprašas</t>
+  </si>
+  <si>
+    <t>Dokumentavimas</t>
+  </si>
+  <si>
+    <t>komentarai, pranešimai</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>comments, messages</t>
+  </si>
+  <si>
+    <t>Sintaksė</t>
+  </si>
+  <si>
+    <t>sintaksinės klaidos</t>
+  </si>
+  <si>
+    <t>Syntax</t>
+  </si>
+  <si>
+    <t>spelling, punctuation, typos, instruction formats</t>
+  </si>
+  <si>
+    <t>Versijavimas</t>
+  </si>
+  <si>
+    <t>pakeitimų valdymas, versijų kontrolė</t>
+  </si>
+  <si>
+    <t>Build, package</t>
+  </si>
+  <si>
+    <t>change management, library, version control</t>
+  </si>
+  <si>
+    <t>Vardai</t>
+  </si>
+  <si>
+    <t>aprašai, vienodi vardai, galiojimo sritis</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>declaration, duplicate names, scope, limits</t>
+  </si>
+  <si>
+    <t>Interfeisas</t>
+  </si>
+  <si>
+    <t>funkcijų/procedūrų iškvietimai, įvedimas-išvedimas, vartotojo formatai</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>procedure calls and references, I/O, user formats</t>
+  </si>
+  <si>
+    <t>Kontrolė</t>
+  </si>
+  <si>
+    <t>klaidų pranešimai, nepakankama kontrolė</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>error messages, inadequate checks</t>
+  </si>
+  <si>
+    <t>Duomenys</t>
+  </si>
+  <si>
+    <t>duomenų struktūros ir turinys</t>
+  </si>
+  <si>
+    <t>structure, contents</t>
+  </si>
+  <si>
+    <t>Funkcionalumas</t>
+  </si>
+  <si>
+    <t>logika, rodyklės, ciklai, rekursija, skaičiavimai, funkcionalumo defektai</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>logic, pointers, loops, recursion, computation, function defects</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>konfigūracija, sinchronizavimas, atminties valdymas</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>configuration, timing, memory</t>
+  </si>
+  <si>
+    <t>Aplinka</t>
+  </si>
+  <si>
+    <t>aplinkos (projektavimo, kompiliavimo, testavimo ar kt.) problemos</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>design, compile, test, or other support system problems</t>
+  </si>
+  <si>
+    <t>Pastabos.
+Naujus klaidų tipus įterpti į lentelę.
+Sukaupus daugiau klaidų, galima susikurti savo standartą (atkreipti dėmesį į istorinius duomenis)</t>
+  </si>
+  <si>
+    <t>OP2</t>
+  </si>
+  <si>
+    <t>Programavimo kalba:</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Aspektas</t>
+  </si>
+  <si>
+    <t>Tikrinami punktai</t>
+  </si>
+  <si>
+    <t>Rasta defektų</t>
+  </si>
+  <si>
+    <t>Išbaigtumas</t>
+  </si>
+  <si>
+    <t>Patikrinti, ar visos funkcijos yra realizuotos</t>
+  </si>
+  <si>
+    <t>Inicializacija</t>
+  </si>
+  <si>
+    <t>Patikrinti, ar visi kintamieji ir parametrai inicializuoti:
+- pradedant vykdyti programą;
+- prieš kiekvieną ciklą;
+- prieš funkcijos iškvietimą.</t>
+  </si>
+  <si>
+    <t>Funkcijų iškvietimas</t>
+  </si>
+  <si>
+    <t>Patikrinti, funkcijų iškvietimų formatus:
+- parametrus;
+- rodykles;
+- '&amp;' panaudojimus.</t>
+  </si>
+  <si>
+    <t>Patikrinti, vardų rašybą ir naudojimą:
+- ar visi vardai korektiški;
+- ar visi aprašyti reikiamame lygyje;
+- ar visose struktūrose/klasėse naudojamas '.'.</t>
+  </si>
+  <si>
+    <t>{} poros</t>
+  </si>
+  <si>
+    <t>Patikrinti, ar riestiniai skliausteliai sudėti tinkamai</t>
+  </si>
+  <si>
+    <t>Loginiai operatoriai</t>
+  </si>
+  <si>
+    <t>Patikrinti, ar korektiškai naudojami ==, =, || ir t.t.
+Patikrinti, ar tinkamai sudėti ().</t>
+  </si>
+  <si>
+    <t>Nuoseklus patikrinimas</t>
+  </si>
+  <si>
+    <t>Patikrinti kiekvieną programos kodo eilutę:
+- ar teisinga operatorių sintaksė;
+- ar teisinga skyryba.</t>
+  </si>
+  <si>
+    <t>Standartai</t>
+  </si>
+  <si>
+    <t>Patikrinti, ar programos kodas atitinka naudojamą Kodavimo standartą</t>
+  </si>
+  <si>
+    <t>Failai</t>
+  </si>
+  <si>
+    <t>Patikrinti, ar visi failai:
+- tinkamai aprašyti;
+- atidaromi;
+- uždaromi.</t>
+  </si>
+  <si>
+    <t>Viso</t>
+  </si>
+  <si>
+    <t>Ugnius Teišerskis</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Peržiūrint kodą paaiškėjo, jog testuojant programą praverstų funkcija, kuri išveda, kaip atrodo šachmatų lenta po kiekvieno karalienės padėjimo. Ši funkcija padeda įsitikinti, jog algoritmas veikia korektiškai.</t>
+  </si>
+  <si>
+    <t>Aplinkos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +436,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -230,11 +593,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -278,9 +720,180 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Įprastas" xfId="0" builtinId="0"/>
+    <cellStyle name="Įprastas 2" xfId="1" xr:uid="{CCC98EA9-887C-460D-9FDC-1DC317FE070F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -560,7 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -784,4 +1397,1112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB43A17-EB73-48E0-AA5D-9A8A7394CFE9}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="0.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="1.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="46"/>
+      <c r="B1" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="48">
+        <v>1</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="49">
+        <v>45369</v>
+      </c>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="46"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="46"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="46"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58">
+        <v>1</v>
+      </c>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="46"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="58">
+        <v>0</v>
+      </c>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="58">
+        <v>0</v>
+      </c>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="46"/>
+      <c r="B12" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="58">
+        <v>0</v>
+      </c>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="46"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58">
+        <v>0</v>
+      </c>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
+      <c r="B16" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="66"/>
+      <c r="E16" s="58">
+        <v>0</v>
+      </c>
+      <c r="F16" s="46"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="46"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="66"/>
+      <c r="E18" s="58">
+        <v>0</v>
+      </c>
+      <c r="F18" s="46"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="46"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="66"/>
+      <c r="E20" s="58">
+        <v>0</v>
+      </c>
+      <c r="F20" s="46"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="46"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
+      <c r="B22" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="58">
+        <v>0</v>
+      </c>
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71">
+        <f>SUM(E6:E22)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="46"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F11B1E4-E298-4183-8EC5-589496C53C2C}">
+  <dimension ref="A1:K35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="19">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="72">
+        <v>45734</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="73">
+        <v>45734</v>
+      </c>
+      <c r="B6" s="74">
+        <v>1</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="74">
+        <v>10</v>
+      </c>
+      <c r="G6" s="74">
+        <v>10</v>
+      </c>
+      <c r="H6" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BF5F51-A891-49DB-9AF8-8C2293F1BD73}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="56.88671875" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="33">
+        <v>1</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="72">
+        <v>45734</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>10</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="38">
+        <v>20</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="38">
+        <v>30</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="38">
+        <v>40</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
+        <v>50</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
+        <v>60</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="38">
+        <v>70</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="38">
+        <v>80</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="38">
+        <v>90</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="38">
+        <v>100</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lab_2/LFF.xlsx
+++ b/lab_2/LFF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugniu\code\ADS\lab_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BDB344-7B44-4BD2-9325-EE2C8F8324A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB61BD4-AC51-4F7B-8BFD-F4D8B1B108B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LFF" sheetId="1" r:id="rId1"/>
@@ -319,9 +319,6 @@
     <t>Programavimo kalba:</t>
   </si>
   <si>
-    <t>C++</t>
-  </si>
-  <si>
     <t>Aspektas</t>
   </si>
   <si>
@@ -410,6 +407,9 @@
   </si>
   <si>
     <t>Aplinkos</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -719,9 +719,6 @@
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -731,10 +728,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -745,53 +738,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -804,10 +772,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -815,80 +779,99 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1403,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB43A17-EB73-48E0-AA5D-9A8A7394CFE9}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1418,284 +1401,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="48">
+      <c r="C1" s="34">
         <v>1</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="35">
         <v>45369</v>
       </c>
-      <c r="F1" s="46"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="46"/>
+      <c r="C2" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="46"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-    </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="53" t="s">
+      <c r="C5" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="53" t="s">
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
+      <c r="B6" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="46"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="55" t="s">
+      <c r="C6" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="39">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58">
-        <v>1</v>
-      </c>
-      <c r="F6" s="46"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="46"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="62" t="s">
+      <c r="C8" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="58">
+      <c r="C10" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="39">
         <v>0</v>
       </c>
-      <c r="F8" s="46"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="63" t="s">
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="58">
+      <c r="D12" s="49"/>
+      <c r="E12" s="39">
         <v>0</v>
       </c>
-      <c r="F10" s="46"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="46"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="63" t="s">
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="58">
+      <c r="C14" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="39">
         <v>0</v>
       </c>
-      <c r="F12" s="46"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="46"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="56" t="s">
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+      <c r="B16" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58">
+      <c r="C16" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="39">
         <v>0</v>
       </c>
-      <c r="F14" s="46"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="46"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="63" t="s">
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
+      <c r="B18" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="58">
+      <c r="C18" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="39">
         <v>0</v>
       </c>
-      <c r="F16" s="46"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="46"/>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="63" t="s">
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="32"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
+      <c r="B20" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="58">
+      <c r="C20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="39">
         <v>0</v>
       </c>
-      <c r="F18" s="46"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="46"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="67" t="s">
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="32"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="32"/>
+      <c r="B22" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="58">
+      <c r="C22" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="39">
         <v>0</v>
       </c>
-      <c r="F20" s="46"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="46"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="63" t="s">
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
+      <c r="B23" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="58">
-        <v>0</v>
-      </c>
-      <c r="F22" s="46"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71">
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="42">
         <f>SUM(E6:E22)</f>
         <v>1</v>
       </c>
-      <c r="F23" s="46"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="C16:D16"/>
@@ -1704,18 +1699,6 @@
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1741,480 +1724,480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19">
+      <c r="B1" s="18">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="43">
+        <v>45734</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="72">
+      <c r="H3" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44">
         <v>45734</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="B6" s="45">
+        <v>1</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="45">
+        <v>10</v>
+      </c>
+      <c r="G6" s="45">
+        <v>10</v>
+      </c>
+      <c r="H6" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73">
-        <v>45734</v>
-      </c>
-      <c r="B6" s="74">
-        <v>1</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="74" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="K7" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="74">
-        <v>10</v>
-      </c>
-      <c r="G6" s="74">
-        <v>10</v>
-      </c>
-      <c r="H6" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="25"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="25"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="25"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="25"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="25"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="25"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="25"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="25"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="25"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="25"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="25"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="25"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="25"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="25"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="25"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="25"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="25"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="25"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="25"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2228,7 +2211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BF5F51-A891-49DB-9AF8-8C2293F1BD73}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2243,260 +2226,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="B3" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="43">
         <v>45734</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
+      <c r="A7" s="26">
         <v>10</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="42" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
+      <c r="A8" s="26">
         <v>20</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="42" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
+      <c r="A9" s="26">
         <v>30</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="42" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
+      <c r="A10" s="26">
         <v>40</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="42" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
+      <c r="A11" s="26">
         <v>50</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="38">
+      <c r="A12" s="26">
         <v>60</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="42" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="38">
+      <c r="A13" s="26">
         <v>70</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="38">
+      <c r="A14" s="26">
         <v>80</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="42" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="30" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="38">
+      <c r="A15" s="26">
         <v>90</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="42" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="30" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="38">
+      <c r="A16" s="26">
         <v>100</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="42" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="30" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="44" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
